--- a/uploads/sales_data_sample_updated_copy.xlsx
+++ b/uploads/sales_data_sample_updated_copy.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/suryaganesan/vscode/ml/projects/reporter/uploads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72A3C2A3-17F8-0D4A-A480-2D29877A9824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{175610B6-B2DE-794F-9834-7072F1A65695}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,9 +21,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1346" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1346" uniqueCount="386">
   <si>
-    <t>ORDER CHICKEN</t>
+    <t>ORDERNUMBER</t>
   </si>
   <si>
     <t>QUANTITYORDERED</t>
@@ -1180,9 +1180,6 @@
   <si>
     <t>RandomNumbers</t>
   </si>
-  <si>
-    <t>ORDERNUMBER</t>
-  </si>
 </sst>
 </file>
 
@@ -91149,7 +91146,7 @@
     </row>
     <row r="10406" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10406" t="s">
-        <v>386</v>
+        <v>0</v>
       </c>
       <c r="B10406" t="s">
         <v>1</v>
